--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -20,16 +20,22 @@
   <connection id="1" name="results" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Git\dmm-lab3-Prim-algorithm\results.xml" htmlTables="1"/>
   </connection>
+  <connection id="2" name="results1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>BinTree</t>
+    <t>SimpleDGPP</t>
   </si>
   <si>
-    <t>Simple</t>
+    <t>BinTreeDGPP</t>
+  </si>
+  <si>
+    <t>BinTreeVSSS</t>
   </si>
 </sst>
 </file>
@@ -118,8 +124,48 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="DMM">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="performance_1000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_2000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_4000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="DMM_карта" RootElement="DMM" SchemaID="Schema1" ShowImportExportValidationErrors="true" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="2" Name="DMM_карта1" RootElement="DMM" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -145,8 +191,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8099518810148729E-2"/>
-          <c:y val="7.4548702245552642E-2"/>
+          <c:x val="7.974781315247205E-2"/>
+          <c:y val="7.4548646699038545E-2"/>
           <c:w val="0.71051093613298333"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
@@ -163,7 +209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BinTree</c:v>
+                  <c:v>BinTreeDGPP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -176,18 +222,18 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -199,13 +245,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.80975699999999995</c:v>
+                  <c:v>0.175814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7862499999999999</c:v>
+                  <c:v>1.04234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.782600000000002</c:v>
+                  <c:v>5.8285299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -221,7 +267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Simple</c:v>
+                  <c:v>SimpleDGPP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -231,18 +277,18 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,13 +300,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.60132099999999999</c:v>
+                  <c:v>0.10814600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.41784</c:v>
+                  <c:v>0.711619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.473799999999997</c:v>
+                  <c:v>4.9063800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BinTreeVSSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6153799999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3808300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0372500000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,11 +360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80618624"/>
-        <c:axId val="80620160"/>
+        <c:axId val="71099904"/>
+        <c:axId val="71101440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80618624"/>
+        <c:axId val="71099904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,7 +377,7 @@
         <c:spPr>
           <a:ln cap="rnd"/>
         </c:spPr>
-        <c:crossAx val="80620160"/>
+        <c:crossAx val="71101440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -305,7 +388,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80620160"/>
+        <c:axId val="71101440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80618624"/>
+        <c:crossAx val="71099904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -338,20 +421,162 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12972005896523212"/>
+          <c:y val="5.6829989274596489E-2"/>
+          <c:w val="0.71051093613298333"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BinTreeVSSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6153799999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3808300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0372500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="47135360"/>
+        <c:axId val="47141248"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="47135360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln cap="rnd"/>
+        </c:spPr>
+        <c:crossAx val="47141248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1000"/>
+        <c:majorTimeUnit val="days"/>
+        <c:minorUnit val="1"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="47141248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47135360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -370,39 +595,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <singleXmlCell id="15" r="B3" connectionId="1">
+  <singleXmlCell id="25" r="B3" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="1" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+      <xmlPr mapId="2" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="16" r="C3" connectionId="1">
-    <xmlCellPr id="1" uniqueName="PrimaSampleDGPP">
-      <xmlPr mapId="1" xpath="/DMM/performance_2000_RAND.txt/PrimaSampleDGPP" xmlDataType="double"/>
+  <singleXmlCell id="26" r="C3" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
+      <xmlPr mapId="2" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="17" r="B4" connectionId="1">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="1" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+  <singleXmlCell id="27" r="D3" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
+      <xmlPr mapId="2" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="18" r="C4" connectionId="1">
-    <xmlCellPr id="1" uniqueName="PrimaSampleDGPP">
-      <xmlPr mapId="1" xpath="/DMM/performance_4000_RAND.txt/PrimaSampleDGPP" xmlDataType="double"/>
+  <singleXmlCell id="31" r="B4" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
+      <xmlPr mapId="2" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="19" r="B5" connectionId="1">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="1" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+  <singleXmlCell id="32" r="C4" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
+      <xmlPr mapId="2" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="20" r="C5" connectionId="1">
-    <xmlCellPr id="1" uniqueName="PrimaSampleDGPP">
-      <xmlPr mapId="1" xpath="/DMM/performance_8000_RAND.txt/PrimaSampleDGPP" xmlDataType="double"/>
+  <singleXmlCell id="33" r="D4" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
+      <xmlPr mapId="2" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="34" r="B5" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
+      <xmlPr mapId="2" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="35" r="C5" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
+      <xmlPr mapId="2" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="36" r="D5" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
+      <xmlPr mapId="2" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -695,57 +967,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="6" width="8" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>0.175814</v>
+      </c>
+      <c r="C3">
+        <v>0.10814600000000001</v>
+      </c>
+      <c r="D3">
+        <v>5.6153799999999997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B3">
-        <v>0.80975699999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.60132099999999999</v>
+      <c r="B4">
+        <v>1.04234</v>
+      </c>
+      <c r="C4">
+        <v>0.711619</v>
+      </c>
+      <c r="D4">
+        <v>1.3808300000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4000</v>
       </c>
-      <c r="B4">
-        <v>4.7862499999999999</v>
-      </c>
-      <c r="C4">
-        <v>4.41784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>8000</v>
-      </c>
       <c r="B5">
-        <v>36.782600000000002</v>
+        <v>5.8285299999999998</v>
       </c>
       <c r="C5">
-        <v>46.473799999999997</v>
+        <v>4.9063800000000004</v>
+      </c>
+      <c r="D5">
+        <v>5.0372500000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -20,14 +20,17 @@
   <connection id="1" name="results" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Git\dmm-lab3-Prim-algorithm\results.xml" htmlTables="1"/>
   </connection>
-  <connection id="2" name="results1" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="results 1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results 1.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="results1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results 1.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SimpleDGPP</t>
   </si>
@@ -36,6 +39,12 @@
   </si>
   <si>
     <t>BinTreeVSSS</t>
+  </si>
+  <si>
+    <t>UnknownV</t>
+  </si>
+  <si>
+    <t>BinTreeV</t>
   </si>
 </sst>
 </file>
@@ -161,10 +170,67 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema3">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="DMM">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="performance_1000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeV" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaUnknownV" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_2000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeV" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaUnknownV" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_4000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeV" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaUnknownV" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_8000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeV" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaUnknownV" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="DMM_карта" RootElement="DMM" SchemaID="Schema1" ShowImportExportValidationErrors="true" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="2" Name="DMM_карта1" RootElement="DMM" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="2" Name="DMM_карта1" RootElement="DMM" SchemaID="Schema2" ShowImportExportValidationErrors="true" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="3" Name="DMM_карта2" RootElement="DMM" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
@@ -222,36 +288,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$5</c:f>
+              <c:f>Лист1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.175814</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04234</c:v>
+                  <c:v>0.15659699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8285299999999998</c:v>
+                  <c:v>1.01095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5677899999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.074800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,36 +352,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$5</c:f>
+              <c:f>Лист1!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.10814600000000001</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.103989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.711619</c:v>
+                  <c:v>0.69741399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9063800000000004</c:v>
+                  <c:v>4.3478199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.4178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,20 +411,166 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$5</c:f>
+              <c:f>Лист1!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.6153799999999997E-3</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.76503E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3808300000000001E-2</c:v>
+                  <c:v>1.57623E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0372500000000001E-2</c:v>
+                  <c:v>3.3031199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13236600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UnknownV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.5445199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3006999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.84322E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15257699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BinTreeV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5444399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36683E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5739299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,11 +587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71099904"/>
-        <c:axId val="71101440"/>
+        <c:axId val="55664640"/>
+        <c:axId val="55666176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71099904"/>
+        <c:axId val="55664640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +604,7 @@
         <c:spPr>
           <a:ln cap="rnd"/>
         </c:spPr>
-        <c:crossAx val="71101440"/>
+        <c:crossAx val="55666176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -388,18 +615,18 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71101440"/>
+        <c:axId val="55666176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71099904"/>
+        <c:crossAx val="55664640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -435,10 +662,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -446,8 +669,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12972005896523212"/>
-          <c:y val="5.6829989274596489E-2"/>
+          <c:x val="7.974781315247205E-2"/>
+          <c:y val="7.4548646699038545E-2"/>
           <c:w val="0.71051093613298333"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
@@ -472,20 +695,166 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$5</c:f>
+              <c:f>Лист1!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.6153799999999997E-3</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.76503E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3808300000000001E-2</c:v>
+                  <c:v>1.57623E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0372500000000001E-2</c:v>
+                  <c:v>3.3031199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13236600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UnknownV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.5445199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3006999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.84322E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15257699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BinTreeV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5444399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36683E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5739299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,11 +871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47135360"/>
-        <c:axId val="47141248"/>
+        <c:axId val="95063040"/>
+        <c:axId val="102884480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="47135360"/>
+        <c:axId val="95063040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +888,7 @@
         <c:spPr>
           <a:ln cap="rnd"/>
         </c:spPr>
-        <c:crossAx val="47141248"/>
+        <c:crossAx val="102884480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -530,7 +899,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47141248"/>
+        <c:axId val="102884480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47135360"/>
+        <c:crossAx val="95063040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -573,10 +942,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -597,20 +966,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -632,49 +1001,104 @@
 
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <singleXmlCell id="25" r="B3" connectionId="2">
+  <singleXmlCell id="10" r="B3" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="2" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="26" r="C3" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="11" r="C3" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="2" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="27" r="D3" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="12" r="D3" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="2" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="31" r="B4" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="13" r="E3" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
+      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="14" r="F3" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
+      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="15" r="B4" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="2" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="32" r="C4" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="16" r="C4" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="2" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="33" r="D4" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="17" r="D4" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="2" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="34" r="B5" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="18" r="E4" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
+      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="19" r="F4" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
+      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="20" r="B5" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="2" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="35" r="C5" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="21" r="C5" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="2" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="36" r="D5" connectionId="2">
+      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="22" r="D5" connectionId="2">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="2" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="23" r="E5" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
+      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="24" r="F5" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
+      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="25" r="B6" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
+      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="26" r="C6" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
+      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="27" r="D6" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
+      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="28" r="E6" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
+      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="29" r="F6" connectionId="2">
+    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
+      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -967,22 +1391,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -992,47 +1416,91 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>0.175814</v>
+        <v>0.15659699999999999</v>
       </c>
       <c r="C3">
-        <v>0.10814600000000001</v>
+        <v>0.103989</v>
       </c>
       <c r="D3">
-        <v>5.6153799999999997E-3</v>
+        <v>5.76503E-3</v>
+      </c>
+      <c r="E3">
+        <v>4.5445199999999998E-3</v>
+      </c>
+      <c r="F3">
+        <v>3.5444399999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>1.04234</v>
+        <v>1.01095</v>
       </c>
       <c r="C4">
-        <v>0.711619</v>
+        <v>0.69741399999999998</v>
       </c>
       <c r="D4">
-        <v>1.3808300000000001E-2</v>
+        <v>1.57623E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.3006999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.36683E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>5.8285299999999998</v>
+        <v>5.5677899999999996</v>
       </c>
       <c r="C5">
-        <v>4.9063800000000004</v>
+        <v>4.3478199999999996</v>
       </c>
       <c r="D5">
-        <v>5.0372500000000001E-2</v>
+        <v>3.3031199999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.84322E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.5739299999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>37.074800000000003</v>
+      </c>
+      <c r="C6">
+        <v>46.4178</v>
+      </c>
+      <c r="D6">
+        <v>0.13236600000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.15257699999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.185062</v>
       </c>
     </row>
   </sheetData>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -23,14 +23,17 @@
   <connection id="2" name="results 1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results 1.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="results1" type="4" refreshedVersion="0" background="1">
+  <connection id="3" name="results 11" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results 1.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="results1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Git\dmm-lab3-Prim-algorithm\results 1.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SimpleDGPP</t>
   </si>
@@ -41,10 +44,13 @@
     <t>BinTreeVSSS</t>
   </si>
   <si>
-    <t>UnknownV</t>
+    <t>BinTreeVKB</t>
   </si>
   <si>
-    <t>BinTreeV</t>
+    <t>SimpleVKB</t>
+  </si>
+  <si>
+    <t>SimpleVSSS</t>
   </si>
 </sst>
 </file>
@@ -224,14 +230,63 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema4">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="DMM">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="performance_1000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVKB" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleVKB" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_2000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVKB" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleVKB" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="performance_4000_RAND.txt" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleDGPP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleVSSS" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaBinTreeVKB" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PrimaSimpleVKB" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="DMM_карта" RootElement="DMM" SchemaID="Schema1" ShowImportExportValidationErrors="true" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="2" Name="DMM_карта1" RootElement="DMM" SchemaID="Schema2" ShowImportExportValidationErrors="true" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="3" Name="DMM_карта2" RootElement="DMM" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="4" Name="DMM_карта3" RootElement="DMM" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -288,10 +343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -300,33 +355,27 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15659699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.01095</c:v>
+                  <c:v>0.444191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.97926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5677899999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.074800000000003</c:v>
+                  <c:v>8.9756300000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,10 +401,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -364,30 +413,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.103989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69741399999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3478199999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.4178</c:v>
+              <c:f>Лист1!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.105975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69449799999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0811200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,10 +456,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -425,30 +468,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.76503E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.57623E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3031199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13236600000000001</c:v>
+              <c:f>Лист1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1975199999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48269E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3726099999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,11 +497,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$2</c:f>
+              <c:f>Лист1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UnknownV</c:v>
+                  <c:v>BinTreeVKB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,10 +511,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -486,30 +523,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$3:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.5445199999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3006999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.84322E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15257699999999999</c:v>
+              <c:f>Лист1!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9425600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3028700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4629799999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,11 +552,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$2</c:f>
+              <c:f>Лист1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BinTreeV</c:v>
+                  <c:v>SimpleVKB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -535,10 +566,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -547,30 +578,61 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.5444399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.36683E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5739299999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.185062</c:v>
+              <c:f>Лист1!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.5393400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3093499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3021499999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SimpleVSSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67501199999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0173199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.013100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,11 +649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55664640"/>
-        <c:axId val="55666176"/>
+        <c:axId val="38932480"/>
+        <c:axId val="38934016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55664640"/>
+        <c:axId val="38932480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +666,7 @@
         <c:spPr>
           <a:ln cap="rnd"/>
         </c:spPr>
-        <c:crossAx val="55666176"/>
+        <c:crossAx val="38934016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -615,7 +677,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55666176"/>
+        <c:axId val="38934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55664640"/>
+        <c:crossAx val="38932480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -697,10 +759,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -709,30 +771,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.76503E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.57623E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3031199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13236600000000001</c:v>
+              <c:f>Лист1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1975199999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48269E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3726099999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,11 +800,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$2</c:f>
+              <c:f>Лист1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UnknownV</c:v>
+                  <c:v>BinTreeVKB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -758,10 +814,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -770,30 +826,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$3:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.5445199999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3006999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.84322E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15257699999999999</c:v>
+              <c:f>Лист1!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9425600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3028700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4629799999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,11 +855,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$2</c:f>
+              <c:f>Лист1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BinTreeV</c:v>
+                  <c:v>SimpleVKB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -819,10 +869,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>Лист1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -831,30 +881,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.5444399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.36683E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5739299999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.185062</c:v>
+              <c:f>Лист1!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.5393400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3093499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3021499999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,11 +915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95063040"/>
-        <c:axId val="102884480"/>
+        <c:axId val="38959744"/>
+        <c:axId val="38969728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95063040"/>
+        <c:axId val="38959744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +932,7 @@
         <c:spPr>
           <a:ln cap="rnd"/>
         </c:spPr>
-        <c:crossAx val="102884480"/>
+        <c:crossAx val="38969728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -899,7 +943,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102884480"/>
+        <c:axId val="38969728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95063040"/>
+        <c:crossAx val="38959744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1001,104 +1045,94 @@
 
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <singleXmlCell id="10" r="B3" connectionId="2">
+  <singleXmlCell id="1" r="B3" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="11" r="C3" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="2" r="C3" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="12" r="D3" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="3" r="D3" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="13" r="E3" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
-      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="14" r="F3" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
-      <xmlPr mapId="3" xpath="/DMM/performance_1000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="15" r="B4" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="4" r="E3" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleVSSS">
+      <xmlPr mapId="4" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="5" r="F3" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVKB">
+      <xmlPr mapId="4" xpath="/DMM/performance_1000_RAND.txt/PrimaBinTreeVKB" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="6" r="G3" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleVKB">
+      <xmlPr mapId="4" xpath="/DMM/performance_1000_RAND.txt/PrimaSimpleVKB" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="7" r="B4" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="16" r="C4" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="8" r="C4" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="17" r="D4" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="9" r="D4" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="18" r="E4" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
-      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="19" r="F4" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
-      <xmlPr mapId="3" xpath="/DMM/performance_2000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="20" r="B5" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="10" r="E4" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleVSSS">
+      <xmlPr mapId="4" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="11" r="F4" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVKB">
+      <xmlPr mapId="4" xpath="/DMM/performance_2000_RAND.txt/PrimaBinTreeVKB" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="12" r="G4" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleVKB">
+      <xmlPr mapId="4" xpath="/DMM/performance_2000_RAND.txt/PrimaSimpleVKB" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="13" r="B5" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="21" r="C5" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="14" r="C5" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="22" r="D5" connectionId="2">
+      <xmlPr mapId="4" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="15" r="D5" connectionId="3">
     <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="23" r="E5" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
-      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="24" r="F5" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
-      <xmlPr mapId="3" xpath="/DMM/performance_4000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="25" r="B6" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="26" r="C6" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaSimpleDGPP">
-      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaSimpleDGPP" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="27" r="D6" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeVSSS">
-      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="28" r="E6" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaBinTreeV">
-      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaBinTreeV" xmlDataType="double"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="29" r="F6" connectionId="2">
-    <xmlCellPr id="1" uniqueName="PrimaUnknownV">
-      <xmlPr mapId="3" xpath="/DMM/performance_8000_RAND.txt/PrimaUnknownV" xmlDataType="double"/>
+      <xmlPr mapId="4" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="16" r="E5" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleVSSS">
+      <xmlPr mapId="4" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleVSSS" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="17" r="F5" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaBinTreeVKB">
+      <xmlPr mapId="4" xpath="/DMM/performance_4000_RAND.txt/PrimaBinTreeVKB" xmlDataType="double"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="18" r="G5" connectionId="3">
+    <xmlCellPr id="1" uniqueName="PrimaSimpleVKB">
+      <xmlPr mapId="4" xpath="/DMM/performance_4000_RAND.txt/PrimaSimpleVKB" xmlDataType="double"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -1391,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,11 +1436,12 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1417,90 +1452,87 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>0.15659699999999999</v>
+        <v>0.444191</v>
       </c>
       <c r="C3">
-        <v>0.103989</v>
+        <v>0.105975</v>
       </c>
       <c r="D3">
-        <v>5.76503E-3</v>
+        <v>5.1975199999999997E-3</v>
       </c>
       <c r="E3">
-        <v>4.5445199999999998E-3</v>
+        <v>0.67501199999999995</v>
       </c>
       <c r="F3">
-        <v>3.5444399999999998E-3</v>
+        <v>3.9425600000000003E-3</v>
+      </c>
+      <c r="G3">
+        <v>3.5393400000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>1.01095</v>
+        <v>1.97926</v>
       </c>
       <c r="C4">
-        <v>0.69741399999999998</v>
+        <v>0.69449799999999995</v>
       </c>
       <c r="D4">
-        <v>1.57623E-2</v>
+        <v>1.48269E-2</v>
       </c>
       <c r="E4">
-        <v>1.3006999999999999E-2</v>
+        <v>4.0173199999999998</v>
       </c>
       <c r="F4">
-        <v>1.36683E-2</v>
+        <v>1.3028700000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.3093499999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>5.5677899999999996</v>
+        <v>8.9756300000000007</v>
       </c>
       <c r="C5">
-        <v>4.3478199999999996</v>
+        <v>5.0811200000000003</v>
       </c>
       <c r="D5">
-        <v>3.3031199999999997E-2</v>
+        <v>4.3726099999999997E-2</v>
       </c>
       <c r="E5">
-        <v>3.84322E-2</v>
+        <v>28.013100000000001</v>
       </c>
       <c r="F5">
-        <v>4.5739299999999997E-2</v>
+        <v>4.4629799999999997E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.3021499999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8000</v>
-      </c>
-      <c r="B6">
-        <v>37.074800000000003</v>
-      </c>
-      <c r="C6">
-        <v>46.4178</v>
-      </c>
-      <c r="D6">
-        <v>0.13236600000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.15257699999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.185062</v>
       </c>
     </row>
   </sheetData>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>class PrimaSimpleDGPP</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Линейная</t>
+  </si>
+  <si>
+    <t>Близкая к постоянной</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -673,22 +676,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>113</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -713,23 +716,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1042,14 +1045,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,7 +1068,7 @@
         <v>250000</v>
       </c>
       <c r="C2">
-        <v>0.25103900000000001</v>
+        <v>0.28338000000000002</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1079,7 +1082,7 @@
         <v>400000</v>
       </c>
       <c r="C3">
-        <v>0.42324600000000001</v>
+        <v>0.51290899999999995</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1093,7 +1096,7 @@
         <v>500000</v>
       </c>
       <c r="C4">
-        <v>0.52939000000000003</v>
+        <v>0.702318</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1104,7 +1107,7 @@
         <v>700000</v>
       </c>
       <c r="C5">
-        <v>0.52625200000000005</v>
+        <v>0.65950900000000001</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1118,7 +1121,7 @@
         <v>800000</v>
       </c>
       <c r="C6">
-        <v>0.52985300000000002</v>
+        <v>0.63932800000000001</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1132,7 +1135,7 @@
         <v>250000</v>
       </c>
       <c r="C7">
-        <v>0.53531300000000004</v>
+        <v>0.67298000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,14 +1146,14 @@
         <v>400000</v>
       </c>
       <c r="C8">
-        <v>0.81418199999999996</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>1.05484</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1160,16 +1163,16 @@
         <v>500000</v>
       </c>
       <c r="C9">
-        <v>1.04294</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>1.29003</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1181,19 +1184,19 @@
         <v>700000</v>
       </c>
       <c r="C10">
-        <v>1.49712</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>1.84283</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,16 +1207,16 @@
         <v>800000</v>
       </c>
       <c r="C11">
-        <v>1.7174199999999999</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
+        <v>2.10453</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1225,18 +1228,18 @@
         <v>250000</v>
       </c>
       <c r="C12">
-        <v>1.2926899999999999</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>1.49943</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1248,16 +1251,16 @@
         <v>400000</v>
       </c>
       <c r="C13">
-        <v>1.84015</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
+        <v>2.2795299999999998</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1269,19 +1272,19 @@
         <v>500000</v>
       </c>
       <c r="C14">
-        <v>2.3089200000000001</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>2.8535699999999999</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,16 +1295,16 @@
         <v>700000</v>
       </c>
       <c r="C15">
-        <v>3.1890999999999998</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+        <v>3.8927700000000001</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1313,7 +1316,7 @@
         <v>800000</v>
       </c>
       <c r="C16">
-        <v>3.6871299999999998</v>
+        <v>4.4652599999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1327,7 @@
         <v>250000</v>
       </c>
       <c r="C17">
-        <v>1.7245299999999999</v>
+        <v>2.0601099999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1338,7 @@
         <v>400000</v>
       </c>
       <c r="C18">
-        <v>2.4150700000000001</v>
+        <v>3.00779</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,7 +1349,7 @@
         <v>500000</v>
       </c>
       <c r="C19">
-        <v>2.96468</v>
+        <v>3.8297599999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1360,7 @@
         <v>700000</v>
       </c>
       <c r="C20">
-        <v>4.1184799999999999</v>
+        <v>5.5055699999999996</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
         <v>800000</v>
       </c>
       <c r="C21">
-        <v>4.8189200000000003</v>
+        <v>5.8980399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1387,7 @@
         <v>250000</v>
       </c>
       <c r="C24">
-        <v>3.6283499999999998E-3</v>
+        <v>2.2725900000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1398,7 @@
         <v>400000</v>
       </c>
       <c r="C25">
-        <v>4.2615800000000001E-3</v>
+        <v>2.6716700000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1409,7 @@
         <v>500000</v>
       </c>
       <c r="C26">
-        <v>4.6421500000000003E-3</v>
+        <v>3.07457E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1420,7 @@
         <v>700000</v>
       </c>
       <c r="C27">
-        <v>4.8070700000000001E-3</v>
+        <v>3.2197200000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1431,7 @@
         <v>800000</v>
       </c>
       <c r="C28">
-        <v>4.5608000000000003E-3</v>
+        <v>3.2516200000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1442,7 @@
         <v>250000</v>
       </c>
       <c r="C29">
-        <v>1.14717E-2</v>
+        <v>5.4176600000000004E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1453,7 @@
         <v>400000</v>
       </c>
       <c r="C30">
-        <v>1.17687E-2</v>
+        <v>5.38194E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1464,7 @@
         <v>500000</v>
       </c>
       <c r="C31">
-        <v>1.21139E-2</v>
+        <v>6.4324200000000003E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1475,7 @@
         <v>700000</v>
       </c>
       <c r="C32">
-        <v>1.3328E-2</v>
+        <v>8.7956100000000006E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1486,7 @@
         <v>800000</v>
       </c>
       <c r="C33">
-        <v>1.3321899999999999E-2</v>
+        <v>9.1021699999999997E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1497,7 @@
         <v>250000</v>
       </c>
       <c r="C34">
-        <v>4.3617400000000001E-2</v>
+        <v>1.9622000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1508,7 @@
         <v>400000</v>
       </c>
       <c r="C35">
-        <v>4.2441899999999998E-2</v>
+        <v>1.7855699999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,7 +1519,7 @@
         <v>500000</v>
       </c>
       <c r="C36">
-        <v>4.2075399999999999E-2</v>
+        <v>2.2842999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1530,7 @@
         <v>700000</v>
       </c>
       <c r="C37">
-        <v>4.3256999999999997E-2</v>
+        <v>2.6320199999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +1541,7 @@
         <v>800000</v>
       </c>
       <c r="C38">
-        <v>4.3744699999999997E-2</v>
+        <v>1.9043999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1552,7 @@
         <v>250000</v>
       </c>
       <c r="C39">
-        <v>6.8322999999999995E-2</v>
+        <v>3.2077599999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1563,7 @@
         <v>400000</v>
       </c>
       <c r="C40">
-        <v>6.4640100000000006E-2</v>
+        <v>2.7800999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,7 +1574,7 @@
         <v>500000</v>
       </c>
       <c r="C41">
-        <v>6.4676499999999998E-2</v>
+        <v>2.4505699999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +1585,7 @@
         <v>700000</v>
       </c>
       <c r="C42">
-        <v>6.5646599999999999E-2</v>
+        <v>2.9145299999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,7 +1596,7 @@
         <v>800000</v>
       </c>
       <c r="C43">
-        <v>6.5925399999999995E-2</v>
+        <v>2.9417700000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1612,7 @@
         <v>250000</v>
       </c>
       <c r="C46">
-        <v>2.4678399999999998</v>
+        <v>3.51352E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1623,7 @@
         <v>400000</v>
       </c>
       <c r="C47">
-        <v>4.0597799999999999</v>
+        <v>4.9751999999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,7 +1634,7 @@
         <v>500000</v>
       </c>
       <c r="C48">
-        <v>5.1463900000000002</v>
+        <v>4.92991E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,7 +1645,7 @@
         <v>700000</v>
       </c>
       <c r="C49">
-        <v>5.1951799999999997</v>
+        <v>5.5580300000000003E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1656,7 @@
         <v>800000</v>
       </c>
       <c r="C50">
-        <v>5.1090200000000001</v>
+        <v>5.2061599999999996E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1667,7 @@
         <v>250000</v>
       </c>
       <c r="C51">
-        <v>5.0700900000000004</v>
+        <v>1.42589E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1678,7 @@
         <v>400000</v>
       </c>
       <c r="C52">
-        <v>8.2727900000000005</v>
+        <v>1.16466E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +1689,7 @@
         <v>500000</v>
       </c>
       <c r="C53">
-        <v>10.3856</v>
+        <v>1.30247E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,7 +1700,7 @@
         <v>700000</v>
       </c>
       <c r="C54">
-        <v>14.5847</v>
+        <v>1.43906E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1711,7 @@
         <v>800000</v>
       </c>
       <c r="C55">
-        <v>16.952400000000001</v>
+        <v>1.64294E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1722,7 @@
         <v>250000</v>
       </c>
       <c r="C56">
-        <v>10.7127</v>
+        <v>3.8717300000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1733,7 @@
         <v>400000</v>
       </c>
       <c r="C57">
-        <v>17.1236</v>
+        <v>4.1910299999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,7 +1744,7 @@
         <v>500000</v>
       </c>
       <c r="C58">
-        <v>21.5502</v>
+        <v>4.3294399999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1755,7 @@
         <v>700000</v>
       </c>
       <c r="C59">
-        <v>29.7789</v>
+        <v>4.8207100000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,7 +1766,7 @@
         <v>800000</v>
       </c>
       <c r="C60">
-        <v>33.974600000000002</v>
+        <v>4.4391800000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1777,7 @@
         <v>250000</v>
       </c>
       <c r="C61">
-        <v>13.676600000000001</v>
+        <v>6.4777199999999993E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
         <v>400000</v>
       </c>
       <c r="C62">
-        <v>21.699400000000001</v>
+        <v>5.3975000000000002E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,7 +1799,7 @@
         <v>500000</v>
       </c>
       <c r="C63">
-        <v>26.540099999999999</v>
+        <v>5.4779899999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,7 +1810,7 @@
         <v>700000</v>
       </c>
       <c r="C64">
-        <v>37.066000000000003</v>
+        <v>7.5038300000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,7 +1821,7 @@
         <v>800000</v>
       </c>
       <c r="C65">
-        <v>43.004100000000001</v>
+        <v>6.2283199999999997E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +1837,7 @@
         <v>250000</v>
       </c>
       <c r="C68">
-        <v>0.29031400000000002</v>
+        <v>0.13941100000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1848,7 @@
         <v>400000</v>
       </c>
       <c r="C69">
-        <v>0.44950400000000001</v>
+        <v>0.210336</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1859,7 @@
         <v>500000</v>
       </c>
       <c r="C70">
-        <v>0.43118099999999998</v>
+        <v>9.6724900000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,7 +1870,7 @@
         <v>700000</v>
       </c>
       <c r="C71">
-        <v>0.413933</v>
+        <v>7.7062400000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1881,7 @@
         <v>800000</v>
       </c>
       <c r="C72">
-        <v>0.40740700000000002</v>
+        <v>7.7083100000000002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1889,7 +1892,7 @@
         <v>250000</v>
       </c>
       <c r="C73">
-        <v>1.17398</v>
+        <v>1.2403599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>400000</v>
       </c>
       <c r="C74">
-        <v>0.80086299999999999</v>
+        <v>0.67588499999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +1914,7 @@
         <v>500000</v>
       </c>
       <c r="C75">
-        <v>0.68659700000000001</v>
+        <v>0.448295</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,7 +1925,7 @@
         <v>700000</v>
       </c>
       <c r="C76">
-        <v>0.92270600000000003</v>
+        <v>0.56935400000000003</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,7 +1936,7 @@
         <v>800000</v>
       </c>
       <c r="C77">
-        <v>1.0431999999999999</v>
+        <v>0.63227100000000003</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,7 +1947,7 @@
         <v>250000</v>
       </c>
       <c r="C78">
-        <v>7.1488899999999997</v>
+        <v>8.8455999999999992</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,7 +1958,7 @@
         <v>400000</v>
       </c>
       <c r="C79">
-        <v>9.0838199999999993</v>
+        <v>10.8733</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,7 +1969,7 @@
         <v>500000</v>
       </c>
       <c r="C80">
-        <v>9.0238700000000005</v>
+        <v>10.7074</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +1980,7 @@
         <v>700000</v>
       </c>
       <c r="C81">
-        <v>8.4428699999999992</v>
+        <v>9.7811599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,7 +1991,7 @@
         <v>800000</v>
       </c>
       <c r="C82">
-        <v>9.4826499999999996</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,7 +2002,7 @@
         <v>250000</v>
       </c>
       <c r="C83">
-        <v>10.0793</v>
+        <v>11.820600000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,7 +2013,7 @@
         <v>400000</v>
       </c>
       <c r="C84">
-        <v>13.137700000000001</v>
+        <v>15.305300000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,7 +2024,7 @@
         <v>500000</v>
       </c>
       <c r="C85">
-        <v>15.8774</v>
+        <v>18.0868</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,7 +2035,7 @@
         <v>700000</v>
       </c>
       <c r="C86">
-        <v>17.0063</v>
+        <v>18.945599999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,7 +2046,7 @@
         <v>800000</v>
       </c>
       <c r="C87">
-        <v>16.374400000000001</v>
+        <v>17.912700000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,7 +2062,7 @@
         <v>250000</v>
       </c>
       <c r="C90">
-        <v>3.5782700000000001E-3</v>
+        <v>1.8725599999999999E-3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2073,7 @@
         <v>400000</v>
       </c>
       <c r="C91">
-        <v>4.6960600000000002E-3</v>
+        <v>3.2707600000000002E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,7 +2084,7 @@
         <v>500000</v>
       </c>
       <c r="C92">
-        <v>4.8310000000000002E-3</v>
+        <v>3.5610500000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +2095,7 @@
         <v>700000</v>
       </c>
       <c r="C93">
-        <v>4.6498099999999999E-3</v>
+        <v>3.4994900000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,7 +2106,7 @@
         <v>800000</v>
       </c>
       <c r="C94">
-        <v>4.51104E-3</v>
+        <v>3.6471899999999998E-3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,7 +2117,7 @@
         <v>250000</v>
       </c>
       <c r="C95">
-        <v>9.6294599999999994E-3</v>
+        <v>2.9405899999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,7 +2128,7 @@
         <v>400000</v>
       </c>
       <c r="C96">
-        <v>1.0246699999999999E-2</v>
+        <v>4.1585499999999996E-3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,7 +2139,7 @@
         <v>500000</v>
       </c>
       <c r="C97">
-        <v>1.11246E-2</v>
+        <v>4.5250899999999998E-3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,7 +2150,7 @@
         <v>700000</v>
       </c>
       <c r="C98">
-        <v>1.15058E-2</v>
+        <v>5.6026899999999996E-3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,7 +2161,7 @@
         <v>800000</v>
       </c>
       <c r="C99">
-        <v>1.18453E-2</v>
+        <v>5.4278699999999996E-3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2172,7 @@
         <v>250000</v>
       </c>
       <c r="C100">
-        <v>3.2621699999999997E-2</v>
+        <v>5.7787799999999999E-3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,7 +2183,7 @@
         <v>400000</v>
       </c>
       <c r="C101">
-        <v>3.3260699999999997E-2</v>
+        <v>6.4987700000000001E-3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2194,7 @@
         <v>500000</v>
       </c>
       <c r="C102">
-        <v>3.3718699999999997E-2</v>
+        <v>6.0078199999999997E-3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,7 +2205,7 @@
         <v>700000</v>
       </c>
       <c r="C103">
-        <v>3.5483199999999999E-2</v>
+        <v>7.35785E-3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,7 +2216,7 @@
         <v>800000</v>
       </c>
       <c r="C104">
-        <v>3.5466600000000001E-2</v>
+        <v>8.7665799999999995E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,7 +2227,7 @@
         <v>250000</v>
       </c>
       <c r="C105">
-        <v>4.9601600000000003E-2</v>
+        <v>7.7495899999999998E-3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,7 +2238,7 @@
         <v>400000</v>
       </c>
       <c r="C106">
-        <v>5.0170100000000002E-2</v>
+        <v>8.1920499999999993E-3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,7 +2249,7 @@
         <v>500000</v>
       </c>
       <c r="C107">
-        <v>5.0591200000000003E-2</v>
+        <v>7.7894699999999997E-3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,7 +2260,7 @@
         <v>700000</v>
       </c>
       <c r="C108">
-        <v>5.26405E-2</v>
+        <v>9.7357199999999998E-3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,7 +2271,7 @@
         <v>800000</v>
       </c>
       <c r="C109">
-        <v>5.17788E-2</v>
+        <v>8.9407600000000007E-3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,7 +2287,7 @@
         <v>250000</v>
       </c>
       <c r="C112">
-        <v>5.4351900000000003E-3</v>
+        <v>6.7035699999999998E-3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2295,7 +2298,7 @@
         <v>400000</v>
       </c>
       <c r="C113">
-        <v>7.7148E-3</v>
+        <v>9.9232899999999995E-3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,7 +2309,7 @@
         <v>500000</v>
       </c>
       <c r="C114">
-        <v>9.68369E-3</v>
+        <v>1.23423E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,7 +2320,7 @@
         <v>700000</v>
       </c>
       <c r="C115">
-        <v>9.7056999999999994E-3</v>
+        <v>1.2205799999999999E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,7 +2331,7 @@
         <v>800000</v>
       </c>
       <c r="C116">
-        <v>9.7034700000000005E-3</v>
+        <v>1.21455E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2339,7 +2342,7 @@
         <v>250000</v>
       </c>
       <c r="C117">
-        <v>7.8781300000000005E-3</v>
+        <v>9.1579999999999995E-3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,7 +2353,7 @@
         <v>400000</v>
       </c>
       <c r="C118">
-        <v>1.0331E-2</v>
+        <v>1.14287E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,7 +2364,7 @@
         <v>500000</v>
       </c>
       <c r="C119">
-        <v>1.1728799999999999E-2</v>
+        <v>1.47393E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,7 +2375,7 @@
         <v>700000</v>
       </c>
       <c r="C120">
-        <v>1.5109300000000001E-2</v>
+        <v>1.99487E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,7 +2386,7 @@
         <v>800000</v>
       </c>
       <c r="C121">
-        <v>1.6625899999999999E-2</v>
+        <v>2.0815400000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,7 +2397,7 @@
         <v>250000</v>
       </c>
       <c r="C122">
-        <v>1.5177299999999999E-2</v>
+        <v>2.0777400000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,7 +2408,7 @@
         <v>400000</v>
       </c>
       <c r="C123">
-        <v>1.8057199999999999E-2</v>
+        <v>2.19629E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,7 +2419,7 @@
         <v>500000</v>
       </c>
       <c r="C124">
-        <v>1.9174099999999999E-2</v>
+        <v>2.5591200000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,7 +2430,7 @@
         <v>700000</v>
       </c>
       <c r="C125">
-        <v>2.24707E-2</v>
+        <v>2.65846E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,7 +2441,7 @@
         <v>800000</v>
       </c>
       <c r="C126">
-        <v>2.3432499999999998E-2</v>
+        <v>2.95944E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,7 +2452,7 @@
         <v>250000</v>
       </c>
       <c r="C127">
-        <v>2.0179200000000001E-2</v>
+        <v>2.58841E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,7 +2463,7 @@
         <v>400000</v>
       </c>
       <c r="C128">
-        <v>2.2716299999999998E-2</v>
+        <v>2.54314E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2471,7 +2474,7 @@
         <v>500000</v>
       </c>
       <c r="C129">
-        <v>2.44108E-2</v>
+        <v>2.86211E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2482,7 +2485,7 @@
         <v>700000</v>
       </c>
       <c r="C130">
-        <v>2.7180800000000001E-2</v>
+        <v>3.1967200000000001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +2496,7 @@
         <v>800000</v>
       </c>
       <c r="C131">
-        <v>2.96336E-2</v>
+        <v>3.52009E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2510,52 +2513,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" r:id="rId3">
+        <oleObject shapeId="1027" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
                 <xdr:row>113</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1025" r:id="rId3"/>
+        <oleObject shapeId="1027" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1026" r:id="rId5">
+        <oleObject shapeId="1028" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>111</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1026" r:id="rId5"/>
+        <oleObject shapeId="1028" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
